--- a/predictionValues/pep_prediciton_value.xlsx
+++ b/predictionValues/pep_prediciton_value.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3764,6 +3764,56 @@
         <v>0.07271531784518692</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>MRN:  JH16121935</t>
+        </is>
+      </c>
+      <c r="B137">
+        <v>0.1685060236161159</v>
+      </c>
+      <c r="C137">
+        <v>0.3170623490466765</v>
+      </c>
+      <c r="D137">
+        <v>0.2257615077889461</v>
+      </c>
+      <c r="E137">
+        <v>0.2298821502492125</v>
+      </c>
+      <c r="F137">
+        <v>0.0962215813268736</v>
+      </c>
+      <c r="G137">
+        <v>0.2484848305735292</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>MRN:  JH16121937</t>
+        </is>
+      </c>
+      <c r="B138">
+        <v>0.1890888150049136</v>
+      </c>
+      <c r="C138">
+        <v>0.1388648298213223</v>
+      </c>
+      <c r="D138">
+        <v>0.2331879231993602</v>
+      </c>
+      <c r="E138">
+        <v>0.08975929591124644</v>
+      </c>
+      <c r="F138">
+        <v>0.2067592471613154</v>
+      </c>
+      <c r="G138">
+        <v>0.2331879231993602</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/predictionValues/pep_prediciton_value.xlsx
+++ b/predictionValues/pep_prediciton_value.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,6 +393,16 @@
           <t>no_treatment</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PD_stent_p1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PD_stent_p2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -418,6 +428,12 @@
       <c r="G2">
         <v>0.05977387940044032</v>
       </c>
+      <c r="H2">
+        <v>0.05042500619935053</v>
+      </c>
+      <c r="I2">
+        <v>0.05042500619935053</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -443,6 +459,12 @@
       <c r="G3">
         <v>0.05056054520809627</v>
       </c>
+      <c r="H3">
+        <v>0.05473751417683825</v>
+      </c>
+      <c r="I3">
+        <v>0.05473751417683825</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -468,6 +490,12 @@
       <c r="G4">
         <v>0.05316384115054462</v>
       </c>
+      <c r="H4">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I4">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -493,6 +521,12 @@
       <c r="G5">
         <v>0.04103738635241394</v>
       </c>
+      <c r="H5">
+        <v>0.04671862197780452</v>
+      </c>
+      <c r="I5">
+        <v>0.04671862197780452</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -518,6 +552,12 @@
       <c r="G6">
         <v>0.4919050839758077</v>
       </c>
+      <c r="H6">
+        <v>0.365826011592558</v>
+      </c>
+      <c r="I6">
+        <v>0.365826011592558</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -543,6 +583,12 @@
       <c r="G7">
         <v>0.1006335486166637</v>
       </c>
+      <c r="H7">
+        <v>0.06467375606489745</v>
+      </c>
+      <c r="I7">
+        <v>0.06467375606489745</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -568,6 +614,12 @@
       <c r="G8">
         <v>0.05055372182024798</v>
       </c>
+      <c r="H8">
+        <v>0.04985784734855869</v>
+      </c>
+      <c r="I8">
+        <v>0.04985784734855869</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -593,6 +645,12 @@
       <c r="G9">
         <v>0.04835761851885845</v>
       </c>
+      <c r="H9">
+        <v>0.04888775369617837</v>
+      </c>
+      <c r="I9">
+        <v>0.04888775369617837</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -618,6 +676,12 @@
       <c r="G10">
         <v>0.1415436636077149</v>
       </c>
+      <c r="H10">
+        <v>0.1422737114196044</v>
+      </c>
+      <c r="I10">
+        <v>0.1422737114196044</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -643,6 +707,12 @@
       <c r="G11">
         <v>0.07609712511916322</v>
       </c>
+      <c r="H11">
+        <v>0.04985784734855869</v>
+      </c>
+      <c r="I11">
+        <v>0.04985784734855869</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -668,6 +738,12 @@
       <c r="G12">
         <v>0.05014003694864044</v>
       </c>
+      <c r="H12">
+        <v>0.04888775369617837</v>
+      </c>
+      <c r="I12">
+        <v>0.04888775369617837</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -693,6 +769,12 @@
       <c r="G13">
         <v>0.06616755035717303</v>
       </c>
+      <c r="H13">
+        <v>0.06560679969803274</v>
+      </c>
+      <c r="I13">
+        <v>0.06560679969803274</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -718,6 +800,12 @@
       <c r="G14">
         <v>0.05620227926638099</v>
       </c>
+      <c r="H14">
+        <v>0.04985784734855869</v>
+      </c>
+      <c r="I14">
+        <v>0.04985784734855869</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -743,6 +831,12 @@
       <c r="G15">
         <v>0.0683252746060784</v>
       </c>
+      <c r="H15">
+        <v>0.04985784734855869</v>
+      </c>
+      <c r="I15">
+        <v>0.04985784734855869</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -768,6 +862,12 @@
       <c r="G16">
         <v>0.05495448073383935</v>
       </c>
+      <c r="H16">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I16">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -793,6 +893,12 @@
       <c r="G17">
         <v>0.5137854185586972</v>
       </c>
+      <c r="H17">
+        <v>0.2156801578090934</v>
+      </c>
+      <c r="I17">
+        <v>0.2156801578090934</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -818,6 +924,12 @@
       <c r="G18">
         <v>0.05042424310428728</v>
       </c>
+      <c r="H18">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I18">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -843,6 +955,12 @@
       <c r="G19">
         <v>0.0944221232678939</v>
       </c>
+      <c r="H19">
+        <v>0.06985894767579515</v>
+      </c>
+      <c r="I19">
+        <v>0.06985894767579515</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -868,6 +986,12 @@
       <c r="G20">
         <v>0.0505657363717098</v>
       </c>
+      <c r="H20">
+        <v>0.04985784734855869</v>
+      </c>
+      <c r="I20">
+        <v>0.04985784734855869</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -893,6 +1017,12 @@
       <c r="G21">
         <v>0.06321886968077051</v>
       </c>
+      <c r="H21">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I21">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -918,6 +1048,12 @@
       <c r="G22">
         <v>0.04891628965073858</v>
       </c>
+      <c r="H22">
+        <v>0.06560679969803274</v>
+      </c>
+      <c r="I22">
+        <v>0.06560679969803274</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -943,6 +1079,12 @@
       <c r="G23">
         <v>0.311201429179918</v>
       </c>
+      <c r="H23">
+        <v>0.2098459953498453</v>
+      </c>
+      <c r="I23">
+        <v>0.2098459953498453</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -968,6 +1110,12 @@
       <c r="G24">
         <v>0.06150006986552137</v>
       </c>
+      <c r="H24">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I24">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -993,6 +1141,12 @@
       <c r="G25">
         <v>0.05464187808719956</v>
       </c>
+      <c r="H25">
+        <v>0.04985784734855869</v>
+      </c>
+      <c r="I25">
+        <v>0.04985784734855869</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1018,6 +1172,12 @@
       <c r="G26">
         <v>0.05063920222512097</v>
       </c>
+      <c r="H26">
+        <v>0.04888775369617837</v>
+      </c>
+      <c r="I26">
+        <v>0.04888775369617837</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1043,6 +1203,12 @@
       <c r="G27">
         <v>0.3472113388292499</v>
       </c>
+      <c r="H27">
+        <v>0.1980588746149727</v>
+      </c>
+      <c r="I27">
+        <v>0.1980588746149727</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1068,6 +1234,12 @@
       <c r="G28">
         <v>0.03703712547883053</v>
       </c>
+      <c r="H28">
+        <v>0.04671862197780452</v>
+      </c>
+      <c r="I28">
+        <v>0.04671862197780452</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1093,6 +1265,12 @@
       <c r="G29">
         <v>0.06601614412930112</v>
       </c>
+      <c r="H29">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I29">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1118,6 +1296,12 @@
       <c r="G30">
         <v>0.051443732710311</v>
       </c>
+      <c r="H30">
+        <v>0.06560679969803274</v>
+      </c>
+      <c r="I30">
+        <v>0.06560679969803274</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1143,6 +1327,12 @@
       <c r="G31">
         <v>0.05346669077650512</v>
       </c>
+      <c r="H31">
+        <v>0.05473751417683825</v>
+      </c>
+      <c r="I31">
+        <v>0.05473751417683825</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1168,6 +1358,12 @@
       <c r="G32">
         <v>0.05930483927575692</v>
       </c>
+      <c r="H32">
+        <v>0.04985784734855869</v>
+      </c>
+      <c r="I32">
+        <v>0.04985784734855869</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1193,6 +1389,12 @@
       <c r="G33">
         <v>0.05082796835432468</v>
       </c>
+      <c r="H33">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I33">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1218,6 +1420,12 @@
       <c r="G34">
         <v>0.06147513280784911</v>
       </c>
+      <c r="H34">
+        <v>0.05200181108358681</v>
+      </c>
+      <c r="I34">
+        <v>0.05200181108358681</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1243,6 +1451,12 @@
       <c r="G35">
         <v>0.06732879987013518</v>
       </c>
+      <c r="H35">
+        <v>0.05420608444894748</v>
+      </c>
+      <c r="I35">
+        <v>0.05420608444894748</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1268,6 +1482,12 @@
       <c r="G36">
         <v>0.4996351878013646</v>
       </c>
+      <c r="H36">
+        <v>0.3407030117650128</v>
+      </c>
+      <c r="I36">
+        <v>0.3407030117650128</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1293,6 +1513,12 @@
       <c r="G37">
         <v>0.2764095918657526</v>
       </c>
+      <c r="H37">
+        <v>0.5388076047589108</v>
+      </c>
+      <c r="I37">
+        <v>0.5388076047589108</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1318,6 +1544,12 @@
       <c r="G38">
         <v>0.04251739523746512</v>
       </c>
+      <c r="H38">
+        <v>0.04671862197780452</v>
+      </c>
+      <c r="I38">
+        <v>0.04671862197780452</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1343,6 +1575,12 @@
       <c r="G39">
         <v>0.3901929754476274</v>
       </c>
+      <c r="H39">
+        <v>0.2786188021596646</v>
+      </c>
+      <c r="I39">
+        <v>0.2786188021596646</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1368,6 +1606,12 @@
       <c r="G40">
         <v>0.6031072674467233</v>
       </c>
+      <c r="H40">
+        <v>0.2612412068964115</v>
+      </c>
+      <c r="I40">
+        <v>0.2612412068964115</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1393,6 +1637,12 @@
       <c r="G41">
         <v>0.05102809681239651</v>
       </c>
+      <c r="H41">
+        <v>0.05042500619935053</v>
+      </c>
+      <c r="I41">
+        <v>0.05042500619935053</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1418,6 +1668,12 @@
       <c r="G42">
         <v>0.2269705254718403</v>
       </c>
+      <c r="H42">
+        <v>0.1216910204038064</v>
+      </c>
+      <c r="I42">
+        <v>0.1216910204038064</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1443,6 +1699,12 @@
       <c r="G43">
         <v>0.1191150519864107</v>
       </c>
+      <c r="H43">
+        <v>0.05582574307977906</v>
+      </c>
+      <c r="I43">
+        <v>0.05582574307977906</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1468,6 +1730,12 @@
       <c r="G44">
         <v>0.1438006086930967</v>
       </c>
+      <c r="H44">
+        <v>0.07353987726110445</v>
+      </c>
+      <c r="I44">
+        <v>0.07353987726110445</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1493,6 +1761,12 @@
       <c r="G45">
         <v>0.3172675002271428</v>
       </c>
+      <c r="H45">
+        <v>0.2300613404971279</v>
+      </c>
+      <c r="I45">
+        <v>0.2300613404971279</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1518,6 +1792,12 @@
       <c r="G46">
         <v>0.1224665320939425</v>
       </c>
+      <c r="H46">
+        <v>0.1596550816946024</v>
+      </c>
+      <c r="I46">
+        <v>0.1596550816946024</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1543,6 +1823,12 @@
       <c r="G47">
         <v>0.3466678347438558</v>
       </c>
+      <c r="H47">
+        <v>0.2002810604628936</v>
+      </c>
+      <c r="I47">
+        <v>0.2002810604628936</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1568,6 +1854,12 @@
       <c r="G48">
         <v>0.05495448073383935</v>
       </c>
+      <c r="H48">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I48">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1593,6 +1885,12 @@
       <c r="G49">
         <v>0.05256206590165757</v>
       </c>
+      <c r="H49">
+        <v>0.05473751417683825</v>
+      </c>
+      <c r="I49">
+        <v>0.05473751417683825</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1618,6 +1916,12 @@
       <c r="G50">
         <v>0.05461667471625908</v>
       </c>
+      <c r="H50">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I50">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1643,6 +1947,12 @@
       <c r="G51">
         <v>0.05599676316804658</v>
       </c>
+      <c r="H51">
+        <v>0.05420608444894748</v>
+      </c>
+      <c r="I51">
+        <v>0.05420608444894748</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1668,6 +1978,12 @@
       <c r="G52">
         <v>0.1268530665271127</v>
       </c>
+      <c r="H52">
+        <v>0.07202600862474218</v>
+      </c>
+      <c r="I52">
+        <v>0.07202600862474218</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1693,6 +2009,12 @@
       <c r="G53">
         <v>0.109604175514764</v>
       </c>
+      <c r="H53">
+        <v>0.06765629465785383</v>
+      </c>
+      <c r="I53">
+        <v>0.06765629465785383</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1718,6 +2040,12 @@
       <c r="G54">
         <v>0.04863432266356238</v>
       </c>
+      <c r="H54">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I54">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1743,6 +2071,12 @@
       <c r="G55">
         <v>0.05854057348783315</v>
       </c>
+      <c r="H55">
+        <v>0.06110052002424948</v>
+      </c>
+      <c r="I55">
+        <v>0.06110052002424948</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1768,6 +2102,12 @@
       <c r="G56">
         <v>0.6189227167838566</v>
       </c>
+      <c r="H56">
+        <v>0.2789174135204635</v>
+      </c>
+      <c r="I56">
+        <v>0.2789174135204635</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1793,6 +2133,12 @@
       <c r="G57">
         <v>0.1062612985457532</v>
       </c>
+      <c r="H57">
+        <v>0.07775166317913418</v>
+      </c>
+      <c r="I57">
+        <v>0.07775166317913418</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1818,6 +2164,12 @@
       <c r="G58">
         <v>0.1933129382883277</v>
       </c>
+      <c r="H58">
+        <v>0.1365569630103648</v>
+      </c>
+      <c r="I58">
+        <v>0.1365569630103648</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1843,6 +2195,12 @@
       <c r="G59">
         <v>0.05589785123535529</v>
       </c>
+      <c r="H59">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I59">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1868,6 +2226,12 @@
       <c r="G60">
         <v>0.09511189149748578</v>
       </c>
+      <c r="H60">
+        <v>0.05953869503359865</v>
+      </c>
+      <c r="I60">
+        <v>0.05953869503359865</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1893,6 +2257,12 @@
       <c r="G61">
         <v>0.05786092656458985</v>
       </c>
+      <c r="H61">
+        <v>0.09504728044306232</v>
+      </c>
+      <c r="I61">
+        <v>0.09504728044306232</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1918,6 +2288,12 @@
       <c r="G62">
         <v>0.05495448073383935</v>
       </c>
+      <c r="H62">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I62">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1943,6 +2319,12 @@
       <c r="G63">
         <v>0.06020435519498601</v>
       </c>
+      <c r="H63">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I63">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1968,6 +2350,12 @@
       <c r="G64">
         <v>0.1017071743212983</v>
       </c>
+      <c r="H64">
+        <v>0.1656253563654155</v>
+      </c>
+      <c r="I64">
+        <v>0.1656253563654155</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1993,6 +2381,12 @@
       <c r="G65">
         <v>0.07164520738788915</v>
       </c>
+      <c r="H65">
+        <v>0.05420608444894748</v>
+      </c>
+      <c r="I65">
+        <v>0.05420608444894748</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2018,6 +2412,12 @@
       <c r="G66">
         <v>0.1223772476015582</v>
       </c>
+      <c r="H66">
+        <v>0.06634859286661055</v>
+      </c>
+      <c r="I66">
+        <v>0.06634859286661055</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2043,6 +2443,12 @@
       <c r="G67">
         <v>0.08707630878017858</v>
       </c>
+      <c r="H67">
+        <v>0.1956132609219785</v>
+      </c>
+      <c r="I67">
+        <v>0.1956132609219785</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2068,6 +2474,12 @@
       <c r="G68">
         <v>0.4060224623105091</v>
       </c>
+      <c r="H68">
+        <v>0.1529592653161326</v>
+      </c>
+      <c r="I68">
+        <v>0.1529592653161326</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2093,6 +2505,12 @@
       <c r="G69">
         <v>0.2682876945348756</v>
       </c>
+      <c r="H69">
+        <v>0.1248182852297736</v>
+      </c>
+      <c r="I69">
+        <v>0.1248182852297736</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2118,6 +2536,12 @@
       <c r="G70">
         <v>0.05151253276871381</v>
       </c>
+      <c r="H70">
+        <v>0.04888775369617837</v>
+      </c>
+      <c r="I70">
+        <v>0.04888775369617837</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2143,6 +2567,12 @@
       <c r="G71">
         <v>0.05301046611260674</v>
       </c>
+      <c r="H71">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I71">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2168,6 +2598,12 @@
       <c r="G72">
         <v>0.05005530698264038</v>
       </c>
+      <c r="H72">
+        <v>0.04888775369617837</v>
+      </c>
+      <c r="I72">
+        <v>0.04888775369617837</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2193,6 +2629,12 @@
       <c r="G73">
         <v>0.2009598535109984</v>
       </c>
+      <c r="H73">
+        <v>0.1094327956920178</v>
+      </c>
+      <c r="I73">
+        <v>0.1094327956920178</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2218,6 +2660,12 @@
       <c r="G74">
         <v>0.05301046611260674</v>
       </c>
+      <c r="H74">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I74">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2243,6 +2691,12 @@
       <c r="G75">
         <v>0.05513803552156171</v>
       </c>
+      <c r="H75">
+        <v>0.05953869503359865</v>
+      </c>
+      <c r="I75">
+        <v>0.05953869503359865</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2268,6 +2722,12 @@
       <c r="G76">
         <v>0.1160626750793381</v>
       </c>
+      <c r="H76">
+        <v>0.07202600862474218</v>
+      </c>
+      <c r="I76">
+        <v>0.07202600862474218</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2293,6 +2753,12 @@
       <c r="G77">
         <v>0.05392236900771774</v>
       </c>
+      <c r="H77">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I77">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2318,6 +2784,12 @@
       <c r="G78">
         <v>0.1394971160220688</v>
       </c>
+      <c r="H78">
+        <v>0.2583353978520744</v>
+      </c>
+      <c r="I78">
+        <v>0.2583353978520744</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2343,6 +2815,12 @@
       <c r="G79">
         <v>0.03934832660165188</v>
       </c>
+      <c r="H79">
+        <v>0.04985784734855869</v>
+      </c>
+      <c r="I79">
+        <v>0.04985784734855869</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2368,6 +2846,12 @@
       <c r="G80">
         <v>0.05868559348884206</v>
       </c>
+      <c r="H80">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I80">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2393,6 +2877,12 @@
       <c r="G81">
         <v>0.05716166131551093</v>
       </c>
+      <c r="H81">
+        <v>0.06330031457063867</v>
+      </c>
+      <c r="I81">
+        <v>0.06330031457063867</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2418,6 +2908,12 @@
       <c r="G82">
         <v>0.09174210023975882</v>
       </c>
+      <c r="H82">
+        <v>0.05905354994338974</v>
+      </c>
+      <c r="I82">
+        <v>0.05905354994338974</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2443,6 +2939,12 @@
       <c r="G83">
         <v>0.05371849818082952</v>
       </c>
+      <c r="H83">
+        <v>0.04985784734855869</v>
+      </c>
+      <c r="I83">
+        <v>0.04985784734855869</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2468,6 +2970,12 @@
       <c r="G84">
         <v>0.06456180561048463</v>
       </c>
+      <c r="H84">
+        <v>0.04888775369617837</v>
+      </c>
+      <c r="I84">
+        <v>0.04888775369617837</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2493,6 +3001,12 @@
       <c r="G85">
         <v>0.05935045130444783</v>
       </c>
+      <c r="H85">
+        <v>0.05420608444894748</v>
+      </c>
+      <c r="I85">
+        <v>0.05420608444894748</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2518,6 +3032,12 @@
       <c r="G86">
         <v>0.05786092656458985</v>
       </c>
+      <c r="H86">
+        <v>0.05420608444894748</v>
+      </c>
+      <c r="I86">
+        <v>0.05420608444894748</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2543,6 +3063,12 @@
       <c r="G87">
         <v>0.04993687667423119</v>
       </c>
+      <c r="H87">
+        <v>0.04671862197780452</v>
+      </c>
+      <c r="I87">
+        <v>0.04671862197780452</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2568,6 +3094,12 @@
       <c r="G88">
         <v>0.1701071873838494</v>
       </c>
+      <c r="H88">
+        <v>0.09096024501821454</v>
+      </c>
+      <c r="I88">
+        <v>0.09096024501821454</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2593,6 +3125,12 @@
       <c r="G89">
         <v>0.1396825634784594</v>
       </c>
+      <c r="H89">
+        <v>0.1078889172411146</v>
+      </c>
+      <c r="I89">
+        <v>0.1078889172411146</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2618,6 +3156,12 @@
       <c r="G90">
         <v>0.08385424410737885</v>
       </c>
+      <c r="H90">
+        <v>0.1280839002862331</v>
+      </c>
+      <c r="I90">
+        <v>0.1095816742683428</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2643,6 +3187,12 @@
       <c r="G91">
         <v>0.08052300536547641</v>
       </c>
+      <c r="H91">
+        <v>0.06530072406517506</v>
+      </c>
+      <c r="I91">
+        <v>0.06530072406517506</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2668,6 +3218,12 @@
       <c r="G92">
         <v>0.1108127018302172</v>
       </c>
+      <c r="H92">
+        <v>0.04985784734855869</v>
+      </c>
+      <c r="I92">
+        <v>0.04985784734855869</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2693,6 +3249,12 @@
       <c r="G93">
         <v>0.04928483661131833</v>
       </c>
+      <c r="H93">
+        <v>0.04985784734855869</v>
+      </c>
+      <c r="I93">
+        <v>0.04985784734855869</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2718,6 +3280,12 @@
       <c r="G94">
         <v>0.04787553022791657</v>
       </c>
+      <c r="H94">
+        <v>0.04985784734855869</v>
+      </c>
+      <c r="I94">
+        <v>0.04985784734855869</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2742,6 +3310,12 @@
       </c>
       <c r="G95">
         <v>0.05092826300889364</v>
+      </c>
+      <c r="H95">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I95">
+        <v>0.05860461905557668</v>
       </c>
     </row>
     <row r="96">
@@ -2763,6 +3337,12 @@
       <c r="G96">
         <v>0.05589785123535529</v>
       </c>
+      <c r="H96">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I96">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2788,6 +3368,12 @@
       <c r="G97">
         <v>0.04273475470430932</v>
       </c>
+      <c r="H97">
+        <v>0.04671862197780452</v>
+      </c>
+      <c r="I97">
+        <v>0.04671862197780452</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2813,6 +3399,12 @@
       <c r="G98">
         <v>0.2642157402669549</v>
       </c>
+      <c r="H98">
+        <v>0.2225527374948469</v>
+      </c>
+      <c r="I98">
+        <v>0.2225527374948469</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2838,6 +3430,12 @@
       <c r="G99">
         <v>0.1294073195702746</v>
       </c>
+      <c r="H99">
+        <v>0.1826517914263813</v>
+      </c>
+      <c r="I99">
+        <v>0.1826517914263813</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2863,6 +3461,12 @@
       <c r="G100">
         <v>0.05461434919595742</v>
       </c>
+      <c r="H100">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I100">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2888,6 +3492,12 @@
       <c r="G101">
         <v>0.05549591715400537</v>
       </c>
+      <c r="H101">
+        <v>0.05420608444894748</v>
+      </c>
+      <c r="I101">
+        <v>0.05420608444894748</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2913,6 +3523,12 @@
       <c r="G102">
         <v>0.1599256539236391</v>
       </c>
+      <c r="H102">
+        <v>0.08244568940984454</v>
+      </c>
+      <c r="I102">
+        <v>0.08244568940984454</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2938,6 +3554,12 @@
       <c r="G103">
         <v>0.06150006986552137</v>
       </c>
+      <c r="H103">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I103">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2963,6 +3585,12 @@
       <c r="G104">
         <v>0.05891638439346236</v>
       </c>
+      <c r="H104">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I104">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2988,6 +3616,12 @@
       <c r="G105">
         <v>0.08496216068870621</v>
       </c>
+      <c r="H105">
+        <v>0.06985894767579515</v>
+      </c>
+      <c r="I105">
+        <v>0.06985894767579515</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3013,6 +3647,12 @@
       <c r="G106">
         <v>0.07100593185220605</v>
       </c>
+      <c r="H106">
+        <v>0.05582574307977906</v>
+      </c>
+      <c r="I106">
+        <v>0.05582574307977906</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3038,6 +3678,12 @@
       <c r="G107">
         <v>0.04479237668172575</v>
       </c>
+      <c r="H107">
+        <v>0.04671862197780452</v>
+      </c>
+      <c r="I107">
+        <v>0.04671862197780452</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3063,6 +3709,12 @@
       <c r="G108">
         <v>0.05667648587916585</v>
       </c>
+      <c r="H108">
+        <v>0.05099224070817843</v>
+      </c>
+      <c r="I108">
+        <v>0.05099224070817843</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3088,6 +3740,12 @@
       <c r="G109">
         <v>0.04448401327217022</v>
       </c>
+      <c r="H109">
+        <v>0.04671862197780452</v>
+      </c>
+      <c r="I109">
+        <v>0.04671862197780452</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3113,6 +3771,12 @@
       <c r="G110">
         <v>0.05887190854415725</v>
       </c>
+      <c r="H110">
+        <v>0.05420608444894748</v>
+      </c>
+      <c r="I110">
+        <v>0.05420608444894748</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3138,6 +3802,12 @@
       <c r="G111">
         <v>0.2367404126224053</v>
       </c>
+      <c r="H111">
+        <v>0.2479958410044465</v>
+      </c>
+      <c r="I111">
+        <v>0.2479958410044465</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3163,6 +3833,12 @@
       <c r="G112">
         <v>0.2786843183009377</v>
       </c>
+      <c r="H112">
+        <v>0.4919635976236298</v>
+      </c>
+      <c r="I112">
+        <v>0.4919635976236298</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3188,6 +3864,12 @@
       <c r="G113">
         <v>0.1144262433784359</v>
       </c>
+      <c r="H113">
+        <v>0.07775166317913418</v>
+      </c>
+      <c r="I113">
+        <v>0.07775166317913418</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3213,6 +3895,12 @@
       <c r="G114">
         <v>0.4997777192068961</v>
       </c>
+      <c r="H114">
+        <v>0.2061351200742434</v>
+      </c>
+      <c r="I114">
+        <v>0.2061351200742434</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3238,6 +3926,12 @@
       <c r="G115">
         <v>0.04448401327217022</v>
       </c>
+      <c r="H115">
+        <v>0.04671862197780452</v>
+      </c>
+      <c r="I115">
+        <v>0.04671862197780452</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3263,6 +3957,12 @@
       <c r="G116">
         <v>0.1083122755513232</v>
       </c>
+      <c r="H116">
+        <v>0.07072543245457041</v>
+      </c>
+      <c r="I116">
+        <v>0.07072543245457041</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3288,6 +3988,12 @@
       <c r="G117">
         <v>0.04870364327630594</v>
       </c>
+      <c r="H117">
+        <v>0.04985784734855869</v>
+      </c>
+      <c r="I117">
+        <v>0.04985784734855869</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3313,6 +4019,12 @@
       <c r="G118">
         <v>0.187061784725232</v>
       </c>
+      <c r="H118">
+        <v>0.1398412334496307</v>
+      </c>
+      <c r="I118">
+        <v>0.1398412334496307</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3338,6 +4050,12 @@
       <c r="G119">
         <v>0.04787553022791657</v>
       </c>
+      <c r="H119">
+        <v>0.04985784734855869</v>
+      </c>
+      <c r="I119">
+        <v>0.04985784734855869</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3363,6 +4081,12 @@
       <c r="G120">
         <v>0.05014003694864044</v>
       </c>
+      <c r="H120">
+        <v>0.04888775369617837</v>
+      </c>
+      <c r="I120">
+        <v>0.04888775369617837</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3388,6 +4112,12 @@
       <c r="G121">
         <v>0.06099549075069144</v>
       </c>
+      <c r="H121">
+        <v>0.05420608444894748</v>
+      </c>
+      <c r="I121">
+        <v>0.05420608444894748</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3413,6 +4143,12 @@
       <c r="G122">
         <v>0.05776453725296071</v>
       </c>
+      <c r="H122">
+        <v>0.04985784734855869</v>
+      </c>
+      <c r="I122">
+        <v>0.04985784734855869</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3438,6 +4174,12 @@
       <c r="G123">
         <v>0.345752186565854</v>
       </c>
+      <c r="H123">
+        <v>0.164146660025238</v>
+      </c>
+      <c r="I123">
+        <v>0.164146660025238</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3463,6 +4205,12 @@
       <c r="G124">
         <v>0.04033409673033506</v>
       </c>
+      <c r="H124">
+        <v>0.04671862197780452</v>
+      </c>
+      <c r="I124">
+        <v>0.04671862197780452</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3488,6 +4236,12 @@
       <c r="G125">
         <v>0.04448401327217022</v>
       </c>
+      <c r="H125">
+        <v>0.04671862197780452</v>
+      </c>
+      <c r="I125">
+        <v>0.04671862197780452</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3513,6 +4267,12 @@
       <c r="G126">
         <v>0.05340349028692615</v>
       </c>
+      <c r="H126">
+        <v>0.05420608444894748</v>
+      </c>
+      <c r="I126">
+        <v>0.05420608444894748</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3538,6 +4298,12 @@
       <c r="G127">
         <v>0.1885434390559737</v>
       </c>
+      <c r="H127">
+        <v>0.124525759829235</v>
+      </c>
+      <c r="I127">
+        <v>0.124525759829235</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3563,6 +4329,12 @@
       <c r="G128">
         <v>0.04920540021629594</v>
       </c>
+      <c r="H128">
+        <v>0.04888775369617837</v>
+      </c>
+      <c r="I128">
+        <v>0.04888775369617837</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3588,6 +4360,12 @@
       <c r="G129">
         <v>0.05555222408579596</v>
       </c>
+      <c r="H129">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I129">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3613,6 +4391,12 @@
       <c r="G130">
         <v>0.05891638439346236</v>
       </c>
+      <c r="H130">
+        <v>0.05860461905557668</v>
+      </c>
+      <c r="I130">
+        <v>0.05860461905557668</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3638,6 +4422,12 @@
       <c r="G131">
         <v>0.7841028460522687</v>
       </c>
+      <c r="H131">
+        <v>0.7687347567097469</v>
+      </c>
+      <c r="I131">
+        <v>0.7687347567097469</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3663,6 +4453,12 @@
       <c r="G132">
         <v>0.3069565216176261</v>
       </c>
+      <c r="H132">
+        <v>0.2094243081603725</v>
+      </c>
+      <c r="I132">
+        <v>0.2094243081603725</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3688,6 +4484,12 @@
       <c r="G133">
         <v>0.09832865305452432</v>
       </c>
+      <c r="H133">
+        <v>0.06818857591666216</v>
+      </c>
+      <c r="I133">
+        <v>0.06818857591666216</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3713,6 +4515,12 @@
       <c r="G134">
         <v>0.403046897128741</v>
       </c>
+      <c r="H134">
+        <v>0.4716882748448146</v>
+      </c>
+      <c r="I134">
+        <v>0.4716882748448146</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3738,6 +4546,12 @@
       <c r="G135">
         <v>0.5545979631544071</v>
       </c>
+      <c r="H135">
+        <v>0.2098459953498453</v>
+      </c>
+      <c r="I135">
+        <v>0.2098459953498453</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3763,6 +4577,12 @@
       <c r="G136">
         <v>0.07271531784518692</v>
       </c>
+      <c r="H136">
+        <v>0.04671862197780452</v>
+      </c>
+      <c r="I136">
+        <v>0.04671862197780452</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3788,6 +4608,12 @@
       <c r="G137">
         <v>0.2484848305735292</v>
       </c>
+      <c r="H137">
+        <v>0.4802307444096496</v>
+      </c>
+      <c r="I137">
+        <v>0.4363148313492264</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3812,6 +4638,12 @@
       </c>
       <c r="G138">
         <v>0.2331879231993602</v>
+      </c>
+      <c r="H138">
+        <v>0.1448574616221742</v>
+      </c>
+      <c r="I138">
+        <v>0.1448574616221742</v>
       </c>
     </row>
   </sheetData>
